--- a/2022/january,  2022.xlsx
+++ b/2022/january,  2022.xlsx
@@ -666,7 +666,7 @@
   <dimension ref="A1:BC40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AX19" sqref="AX19:AX25"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
